--- a/data/trans_dic/P34B02_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P34B02_R-Estudios-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.03668229289841828</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.08749245920327235</v>
+        <v>0.08749245920327234</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.02089440583523757</v>
@@ -664,7 +664,7 @@
         <v>0.0354427213467586</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.06640911586995012</v>
+        <v>0.06640911586995013</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02601810595263927</v>
+        <v>0.02643519311227955</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02502546508608552</v>
+        <v>0.02460908697435214</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06850302764599936</v>
+        <v>0.06503364267438089</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0142994996922134</v>
+        <v>0.01390119900373854</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02259596997104256</v>
+        <v>0.02299805251455332</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04062368806640674</v>
+        <v>0.0411474182786199</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02160707524141764</v>
+        <v>0.02192437834015926</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02671340283229065</v>
+        <v>0.02688799564818204</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05457878691165315</v>
+        <v>0.05545480544637253</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.052830053541648</v>
+        <v>0.0520943702551428</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0532568134344089</v>
+        <v>0.05226107081490063</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.11309244109085</v>
+        <v>0.1116380634566408</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02995243510021415</v>
+        <v>0.03010828071679842</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04846747978721657</v>
+        <v>0.04827226742867578</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06494040378952964</v>
+        <v>0.06512273807460078</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03630951763393102</v>
+        <v>0.03658635975870264</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04518661453884516</v>
+        <v>0.04460682815210452</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07877106814899479</v>
+        <v>0.07852297915508069</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04737949637572053</v>
+        <v>0.04713877130755305</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06527995732467301</v>
+        <v>0.06677849638974681</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1966402285284835</v>
+        <v>0.1970391156205638</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03537750670053893</v>
+        <v>0.03490572456077343</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04562802868022424</v>
+        <v>0.04552575185935876</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1301970076524455</v>
+        <v>0.1320070181674785</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04351018504920107</v>
+        <v>0.04338360755741163</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05943011839680809</v>
+        <v>0.05945898087324267</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1687970248905899</v>
+        <v>0.1686256757658664</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06965291089905333</v>
+        <v>0.06715644728968338</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09029952898527299</v>
+        <v>0.09065301201100472</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2404473894378776</v>
+        <v>0.2405366709776894</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05555683723573191</v>
+        <v>0.05488546415073735</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.066314235530333</v>
+        <v>0.06715980522152565</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1587578446965925</v>
+        <v>0.1595073183556237</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05844939467963611</v>
+        <v>0.05751962801713721</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07563719768007322</v>
+        <v>0.07552963793382404</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1940705676551156</v>
+        <v>0.1942250261918672</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.1173689402338232</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2142278123874978</v>
+        <v>0.2142278123874979</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.06532651943560559</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05454492106743019</v>
+        <v>0.0535973138680176</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09280474691293804</v>
+        <v>0.08936319540359529</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1796933667225614</v>
+        <v>0.1799121313653615</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04172599440867958</v>
+        <v>0.04383659433194894</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05661535964697536</v>
+        <v>0.05527092245145254</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1792188147415494</v>
+        <v>0.1789025766877655</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05206168748103151</v>
+        <v>0.05233642350581266</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0797415317476536</v>
+        <v>0.07959146078929473</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1860228112562644</v>
+        <v>0.1886374841903625</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1066467018996025</v>
+        <v>0.103523616380286</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1507459427196402</v>
+        <v>0.1459520916661131</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2510293968883319</v>
+        <v>0.2485476743579324</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09378041006880866</v>
+        <v>0.0984244932468408</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1018602715867797</v>
+        <v>0.1032921704271272</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2327339420553841</v>
+        <v>0.2380189552209498</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08801773391037358</v>
+        <v>0.08902082730541307</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1176752902734088</v>
+        <v>0.1158051435746553</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2325185472217398</v>
+        <v>0.234920151746605</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.05288686537521738</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.1358310542995703</v>
+        <v>0.1358310542995704</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.04580646032561655</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0458495873780628</v>
+        <v>0.04669609877672479</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06670035011402058</v>
+        <v>0.06710367563060975</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1796968970523654</v>
+        <v>0.1811461576274997</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03145634264438256</v>
+        <v>0.03130797260433982</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04624655799313056</v>
+        <v>0.04517770293311537</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1268976491389578</v>
+        <v>0.1257821686542683</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04088235323377089</v>
+        <v>0.04045395037045996</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05822261303987881</v>
+        <v>0.0579693455038502</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1552799835511814</v>
+        <v>0.1562769951114421</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06207105054300703</v>
+        <v>0.06165384743208017</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08540642054207967</v>
+        <v>0.08618556379417877</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2094910788864947</v>
+        <v>0.2110320688821024</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04550016300310679</v>
+        <v>0.0447620948778816</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06106123864134023</v>
+        <v>0.060764661425611</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1475670702215061</v>
+        <v>0.145910404613182</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05103677715295556</v>
+        <v>0.05101694928292713</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06985311803729338</v>
+        <v>0.06972677507831451</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.174244945494115</v>
+        <v>0.1740043982951376</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>25305</v>
+        <v>25710</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>18878</v>
+        <v>18564</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>39631</v>
+        <v>37624</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>19130</v>
+        <v>18597</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>22475</v>
+        <v>22875</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>33316</v>
+        <v>33746</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>49920</v>
+        <v>50653</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>46722</v>
+        <v>47027</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>76336</v>
+        <v>77562</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>51381</v>
+        <v>50666</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>40174</v>
+        <v>39423</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>65427</v>
+        <v>64586</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>40070</v>
+        <v>40279</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>48209</v>
+        <v>48014</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>53259</v>
+        <v>53408</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>83888</v>
+        <v>84528</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>79032</v>
+        <v>78018</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>110173</v>
+        <v>109826</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>93051</v>
+        <v>92579</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>135546</v>
+        <v>138658</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>437608</v>
+        <v>438496</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>62120</v>
+        <v>61291</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>90722</v>
+        <v>90519</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>282096</v>
+        <v>286018</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>161852</v>
+        <v>161381</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>241565</v>
+        <v>241682</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>741376</v>
+        <v>740623</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>136795</v>
+        <v>131892</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>187497</v>
+        <v>188231</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>535098</v>
+        <v>535297</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>97553</v>
+        <v>96374</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>131853</v>
+        <v>133534</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>343979</v>
+        <v>345603</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>217424</v>
+        <v>213965</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>307441</v>
+        <v>307004</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>852380</v>
+        <v>853058</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>26246</v>
+        <v>25790</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>50754</v>
+        <v>48871</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>127867</v>
+        <v>128023</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>19137</v>
+        <v>20105</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>31090</v>
+        <v>30351</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>131704</v>
+        <v>131471</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>48928</v>
+        <v>49186</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>87399</v>
+        <v>87234</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>269075</v>
+        <v>272857</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>51316</v>
+        <v>49814</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>82441</v>
+        <v>79819</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>178629</v>
+        <v>176863</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>43011</v>
+        <v>45141</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>55936</v>
+        <v>56722</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>171031</v>
+        <v>174915</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>82720</v>
+        <v>83663</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>128975</v>
+        <v>126926</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>336330</v>
+        <v>339804</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>156701</v>
+        <v>159594</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>225288</v>
+        <v>226651</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>631732</v>
+        <v>636827</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>111744</v>
+        <v>111216</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>163347</v>
+        <v>159572</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>472273</v>
+        <v>468121</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>284952</v>
+        <v>281966</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>402302</v>
+        <v>400552</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1123796</v>
+        <v>1131012</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>212141</v>
+        <v>210715</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>288470</v>
+        <v>291102</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>736475</v>
+        <v>741892</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>161632</v>
+        <v>159010</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>215674</v>
+        <v>214627</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>549198</v>
+        <v>543032</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>355729</v>
+        <v>355591</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>482665</v>
+        <v>481792</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1261050</v>
+        <v>1259309</v>
       </c>
     </row>
     <row r="20">
